--- a/section4/1_昭島店.xlsx
+++ b/section4/1_昭島店.xlsx
@@ -74,11 +74,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -444,13 +445,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3556"/>
+  <dimension ref="A1:O3556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="20"/>
     <col customWidth="1" max="2" min="2" width="20"/>
@@ -466,6 +467,11 @@
           <t>1_昭島店 売上 Data</t>
         </is>
       </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>配達完了までの時間</t>
+        </is>
+      </c>
     </row>
     <row r="2"/>
     <row r="3">
@@ -494,6 +500,46 @@
           <t>注文状態</t>
         </is>
       </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
@@ -518,6 +564,30 @@
         <is>
           <t>お渡し済</t>
         </is>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>3553</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>34.47706163805235</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>14.51440318863152</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="5">

--- a/section4/1_昭島店.xlsx
+++ b/section4/1_昭島店.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,6 +36,9 @@
     <font>
       <b val="1"/>
       <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -78,13 +81,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -669,6 +673,11 @@
           <t>お支払済</t>
         </is>
       </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>集計</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
@@ -694,6 +703,15 @@
           <t>Cancel</t>
         </is>
       </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>Data 総額</t>
+        </is>
+      </c>
+      <c r="J8">
+        <f>SUM(D4:D3556)</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
@@ -719,6 +737,15 @@
           <t>Cancel</t>
         </is>
       </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　内　決済完了額</t>
+        </is>
+      </c>
+      <c r="J9">
+        <f>SUMIF(F4:F3556,"&lt;&gt;Cancel",D4:D3556)</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
@@ -743,6 +770,15 @@
         <is>
           <t>お渡し済</t>
         </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">　内　Cancel 額</t>
+        </is>
+      </c>
+      <c r="J10">
+        <f>SUMIF(F4:F3556,"=Cancel",D4:D3556)</f>
+        <v/>
       </c>
     </row>
     <row r="11">
